--- a/Data prep/macro_data.xlsx
+++ b/Data prep/macro_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lena/Git/GDP-nowcasting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lena/Git/GDP-nowcasting/Data prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339EAC8B-DB90-3245-8FBC-A30BDB1DAE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E052FB-7934-A94E-9221-12401AB270E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1480" windowWidth="27240" windowHeight="15500" xr2:uid="{31849CCF-4493-4A40-A62C-CB2ED16BC9FE}"/>
+    <workbookView xWindow="1080" yWindow="580" windowWidth="27240" windowHeight="15500" activeTab="2" xr2:uid="{31849CCF-4493-4A40-A62C-CB2ED16BC9FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="IP index" sheetId="3" r:id="rId3"/>
     <sheet name="DE ESI" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -449,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97B4AF1-7542-E049-9574-4D535DF60CA2}">
   <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1546,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF1A05-402E-CF41-9944-E6812286EFC4}">
   <dimension ref="A1:C388"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1579,8 +1579,8 @@
         <v>78</v>
       </c>
       <c r="C3">
-        <f>(B2-B3)/B2*100</f>
-        <v>1.1406844106463949</v>
+        <f xml:space="preserve"> (B3-B2)/B2*100</f>
+        <v>-1.1406844106463949</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1591,8 +1591,8 @@
         <v>77.3</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">(B3-B4)/B3*100</f>
-        <v>0.89743589743590102</v>
+        <f t="shared" ref="C4:C67" si="0" xml:space="preserve"> (B4-B3)/B3*100</f>
+        <v>-0.89743589743590102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.90556274256145264</v>
+        <v>-0.90556274256145264</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.913838120104424</v>
+        <v>-0.913838120104424</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-3.5573122529644117</v>
+        <v>3.5573122529644117</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>3.0534351145038063</v>
+        <v>-3.0534351145038063</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1.0498687664041957</v>
+        <v>-1.0498687664041957</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.39787798408489566</v>
+        <v>-0.39787798408489566</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-1.4647137150466161</v>
+        <v>1.4647137150466161</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>-1.1811023622047132</v>
+        <v>1.1811023622047132</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.12970168612191224</v>
+        <v>-0.12970168612191224</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-1.5584415584415621</v>
+        <v>1.5584415584415621</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>-1.0230179028132955</v>
+        <v>1.0230179028132955</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>2.405063291139248</v>
+        <v>-2.405063291139248</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.12970168612191224</v>
+        <v>-0.12970168612191224</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>1.0389610389610353</v>
+        <v>-1.0389610389610353</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>1.1811023622047319</v>
+        <v>-1.1811023622047319</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>1.9920318725099602</v>
+        <v>-1.9920318725099602</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>-0.94850948509485489</v>
+        <v>0.94850948509485489</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>1.0738255033557009</v>
+        <v>-1.0738255033557009</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.13568521031208755</v>
+        <v>-0.13568521031208755</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>1.4945652173912967</v>
+        <v>-1.4945652173912967</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>1.9310344827586285</v>
+        <v>-1.9310344827586285</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.14064697609000609</v>
+        <v>-0.14064697609000609</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>1.5492957746478793</v>
+        <v>-1.5492957746478793</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.14306151645208659</v>
+        <v>-0.14306151645208659</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.85959885386818669</v>
+        <v>-0.85959885386818669</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.28901734104046656</v>
+        <v>-0.28901734104046656</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0.434782608695648</v>
+        <v>-0.434782608695648</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>2.0378457059679849</v>
+        <v>-2.0378457059679849</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>-4.1604754829123287</v>
+        <v>4.1604754829123287</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0.42796005706133694</v>
+        <v>-0.42796005706133694</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>0.42979942693409334</v>
+        <v>-0.42979942693409334</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>-0.86330935251797747</v>
+        <v>0.86330935251797747</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0.71326676176890158</v>
+        <v>-0.71326676176890158</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>-1.7241379310344869</v>
+        <v>1.7241379310344869</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0.70621468926553677</v>
+        <v>-0.70621468926553677</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>-1.4224751066856329</v>
+        <v>1.4224751066856329</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>0.42075736325385293</v>
+        <v>-0.42075736325385293</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>-0.28169014084507443</v>
+        <v>0.28169014084507443</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>0.28089887640449834</v>
+        <v>-0.28089887640449834</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>-1.4084507042253522</v>
+        <v>1.4084507042253522</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>-1.9444444444444524</v>
+        <v>1.9444444444444524</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.2724795640327014</v>
+        <v>-0.2724795640327014</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>-0.27322404371585085</v>
+        <v>0.27322404371585085</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>1.9073569482288906</v>
+        <v>-1.9073569482288906</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>-1.3888888888888888</v>
+        <v>1.3888888888888888</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.68493150684931503</v>
+        <v>-0.68493150684931503</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>-0.55172413793104236</v>
+        <v>0.55172413793104236</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>-0.54869684499312954</v>
+        <v>0.54869684499312954</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>0.95497953615280073</v>
+        <v>-0.95497953615280073</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>0.41322314049586389</v>
+        <v>-0.41322314049586389</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>0.9681881051175697</v>
+        <v>-0.9681881051175697</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>-1.8156424581005748</v>
+        <v>1.8156424581005748</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>2.6063100137174287</v>
+        <v>-2.6063100137174287</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>-0.84507042253520326</v>
+        <v>0.84507042253520326</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>-0.41899441340783716</v>
+        <v>0.41899441340783716</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>0.13908205841447638</v>
+        <v>-0.13908205841447638</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>-0.27855153203343019</v>
+        <v>0.27855153203343019</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>0.69444444444444442</v>
+        <v>-0.69444444444444442</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>-1.2587412587412667</v>
+        <v>1.2587412587412667</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
-        <v>0.13812154696133774</v>
+        <v>-0.13812154696133774</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2359,8 +2359,8 @@
         <v>71.599999999999994</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C131" si="1">(B67-B68)/B67*100</f>
-        <v>0.9681881051175697</v>
+        <f t="shared" ref="C68:C131" si="1" xml:space="preserve"> (B68-B67)/B67*100</f>
+        <v>-0.9681881051175697</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>-1.8156424581005748</v>
+        <v>1.8156424581005748</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>-0.41152263374485198</v>
+        <v>0.41152263374485198</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>1.2295081967213193</v>
+        <v>-1.2295081967213193</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>-1.2448132780083065</v>
+        <v>1.2448132780083065</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>-0.13661202185791574</v>
+        <v>0.13661202185791574</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>0.68212824010914053</v>
+        <v>-0.68212824010914053</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>-0.54945054945055727</v>
+        <v>0.54945054945055727</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>-1.0928961748633841</v>
+        <v>1.0928961748633841</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>0.40540540540540154</v>
+        <v>-0.40540540540540154</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>0.67842605156037983</v>
+        <v>-0.67842605156037983</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>-2.7322404371584699</v>
+        <v>2.7322404371584699</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>-1.0638297872340388</v>
+        <v>1.0638297872340388</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>2.8947368421052668</v>
+        <v>-2.8947368421052668</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>-0.81300813008131234</v>
+        <v>0.81300813008131234</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>-1.4784946236559062</v>
+        <v>1.4784946236559062</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>-0.3973509933774797</v>
+        <v>0.3973509933774797</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>-0.92348284960422544</v>
+        <v>0.92348284960422544</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>-0.78431372549018863</v>
+        <v>0.78431372549018863</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>0.12970168612191224</v>
+        <v>-0.12970168612191224</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>-1.1688311688311761</v>
+        <v>1.1688311688311761</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
-        <v>0.51347881899872361</v>
+        <v>-0.51347881899872361</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
-        <v>-0.38709677419354471</v>
+        <v>0.38709677419354471</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
-        <v>0.89974293059126331</v>
+        <v>-0.89974293059126331</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
-        <v>-2.3346303501945673</v>
+        <v>2.3346303501945673</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
-        <v>1.7743979721166103</v>
+        <v>-1.7743979721166103</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
-        <v>1.0322580645161255</v>
+        <v>-1.0322580645161255</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
-        <v>-0.5215123859191545</v>
+        <v>0.5215123859191545</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
-        <v>1.2970168612191959</v>
+        <v>-1.2970168612191959</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
-        <v>-0.26281208935611411</v>
+        <v>0.26281208935611411</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
-        <v>-1.7038007863695901</v>
+        <v>1.7038007863695901</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
-        <v>1.8041237113401953</v>
+        <v>-1.8041237113401953</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
-        <v>-0.65616797900262469</v>
+        <v>0.65616797900262469</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
-        <v>-0.91264667535854349</v>
+        <v>0.91264667535854349</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
-        <v>-0.3875968992248025</v>
+        <v>0.3875968992248025</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
-        <v>0.12870012870013967</v>
+        <v>-0.12870012870013967</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
-        <v>-0.77319587628867081</v>
+        <v>0.77319587628867081</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
-        <v>-0.89514066496164046</v>
+        <v>0.89514066496164046</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
-        <v>0.50697084917617952</v>
+        <v>-0.50697084917617952</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
-        <v>-1.1464968152866315</v>
+        <v>1.1464968152866315</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
-        <v>-0.12594458438286438</v>
+        <v>0.12594458438286438</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
-        <v>-0.12578616352200545</v>
+        <v>0.12578616352200545</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
-        <v>0.75376884422109847</v>
+        <v>-0.75376884422109847</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
-        <v>-2.1518987341772187</v>
+        <v>2.1518987341772187</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
-        <v>0.12391573729864749</v>
+        <v>-0.12391573729864749</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="C113">
         <f t="shared" si="1"/>
-        <v>-1.4888337468982666</v>
+        <v>1.4888337468982666</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
-        <v>-2.2004889975550088</v>
+        <v>2.2004889975550088</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="C115">
         <f t="shared" si="1"/>
-        <v>2.7511961722488003</v>
+        <v>-2.7511961722488003</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C116">
         <f t="shared" si="1"/>
-        <v>-2.4600246002460024</v>
+        <v>2.4600246002460024</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C117">
         <f t="shared" si="1"/>
-        <v>-0.60024009603841544</v>
+        <v>0.60024009603841544</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="C118">
         <f t="shared" si="1"/>
-        <v>-0.11933174224344693</v>
+        <v>0.11933174224344693</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="C119">
         <f t="shared" si="1"/>
-        <v>0.35756853396902422</v>
+        <v>-0.35756853396902422</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="C120">
         <f t="shared" si="1"/>
-        <v>-0.47846889952153793</v>
+        <v>0.47846889952153793</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C121">
         <f t="shared" si="1"/>
-        <v>-0.47619047619048299</v>
+        <v>0.47619047619048299</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="C122">
         <f t="shared" si="1"/>
-        <v>0.35545023696683808</v>
+        <v>-0.35545023696683808</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
-        <v>-1.0701545778834789</v>
+        <v>1.0701545778834789</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="C124">
         <f t="shared" si="1"/>
-        <v>1.2941176470588167</v>
+        <v>-1.2941176470588167</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
-        <v>1.1918951132300357</v>
+        <v>-1.1918951132300357</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
-        <v>-0.84439083232809242</v>
+        <v>0.84439083232809242</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C128">
         <f t="shared" si="1"/>
-        <v>2.5119617224880315</v>
+        <v>-2.5119617224880315</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
-        <v>-2.6993865030674882</v>
+        <v>2.6993865030674882</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C130">
         <f t="shared" si="1"/>
-        <v>1.4336917562724047</v>
+        <v>-1.4336917562724047</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="C131">
         <f t="shared" si="1"/>
-        <v>1.8181818181818181</v>
+        <v>-1.8181818181818181</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -3127,8 +3127,8 @@
         <v>80.2</v>
       </c>
       <c r="C132">
-        <f t="shared" ref="C132:C195" si="2">(B131-B132)/B131*100</f>
-        <v>0.98765432098765082</v>
+        <f t="shared" ref="C132:C195" si="2" xml:space="preserve"> (B132-B131)/B131*100</f>
+        <v>-0.98765432098765082</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="C133">
         <f t="shared" si="2"/>
-        <v>-0.99750623441396158</v>
+        <v>0.99750623441396158</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
-        <v>0.12345679012344976</v>
+        <v>-0.12345679012344976</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="C135">
         <f t="shared" si="2"/>
-        <v>-0.12360939431396083</v>
+        <v>0.12360939431396083</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
-        <v>-0.61728395061728392</v>
+        <v>0.61728395061728392</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C137">
         <f t="shared" si="2"/>
-        <v>-0.368098159509199</v>
+        <v>0.368098159509199</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C138">
         <f t="shared" si="2"/>
-        <v>0.85574572127139703</v>
+        <v>-0.85574572127139703</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="C139">
         <f t="shared" si="2"/>
-        <v>-1.972872996300874</v>
+        <v>1.972872996300874</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C140">
         <f t="shared" si="2"/>
-        <v>1.4510278113663879</v>
+        <v>-1.4510278113663879</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="C141">
         <f t="shared" si="2"/>
-        <v>-2.0858895705521507</v>
+        <v>2.0858895705521507</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C142">
         <f t="shared" si="2"/>
-        <v>0.96153846153845812</v>
+        <v>-0.96153846153845812</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="C143">
         <f t="shared" si="2"/>
-        <v>0.84951456310679951</v>
+        <v>-0.84951456310679951</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="C144">
         <f t="shared" si="2"/>
-        <v>-1.4687882496940059</v>
+        <v>1.4687882496940059</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="C145">
         <f t="shared" si="2"/>
-        <v>1.6887816646562188</v>
+        <v>-1.6887816646562188</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="C146">
         <f t="shared" si="2"/>
-        <v>-0.98159509202453643</v>
+        <v>0.98159509202453643</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="C147">
         <f t="shared" si="2"/>
-        <v>-0.24301336573511889</v>
+        <v>0.24301336573511889</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="C149">
         <f t="shared" si="2"/>
-        <v>0.3636363636363602</v>
+        <v>-0.3636363636363602</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="C150">
         <f t="shared" si="2"/>
-        <v>0.60827250608272498</v>
+        <v>-0.60827250608272498</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
-        <v>0.61199510403916768</v>
+        <v>-0.61199510403916768</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="C152">
         <f t="shared" si="2"/>
-        <v>-1.9704433497536877</v>
+        <v>1.9704433497536877</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="C153">
         <f t="shared" si="2"/>
-        <v>2.0531400966183613</v>
+        <v>-2.0531400966183613</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="C154">
         <f t="shared" si="2"/>
-        <v>0.49321824907520528</v>
+        <v>-0.49321824907520528</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C155">
         <f t="shared" si="2"/>
-        <v>-2.726146220570016</v>
+        <v>2.726146220570016</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C156">
         <f t="shared" si="2"/>
-        <v>-0.72376357056694118</v>
+        <v>0.72376357056694118</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C157">
         <f t="shared" si="2"/>
-        <v>-0.4790419161676715</v>
+        <v>0.4790419161676715</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="C158">
         <f t="shared" si="2"/>
-        <v>-0.11918951132299678</v>
+        <v>0.11918951132299678</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
-        <v>-0.2380952380952415</v>
+        <v>0.2380952380952415</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="C160">
         <f t="shared" si="2"/>
-        <v>0.83135391923990831</v>
+        <v>-0.83135391923990831</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="C161">
         <f t="shared" si="2"/>
-        <v>-1.4371257485029976</v>
+        <v>1.4371257485029976</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="C162">
         <f t="shared" si="2"/>
-        <v>-0.94451003541912293</v>
+        <v>0.94451003541912293</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="C163">
         <f t="shared" si="2"/>
-        <v>0.81871345029240106</v>
+        <v>-0.81871345029240106</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="C164">
         <f t="shared" si="2"/>
-        <v>-1.2971698113207648</v>
+        <v>1.2971698113207648</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="C165">
         <f t="shared" si="2"/>
-        <v>1.0477299185099018</v>
+        <v>-1.0477299185099018</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="C166">
         <f t="shared" si="2"/>
-        <v>0.23529411764706218</v>
+        <v>-0.23529411764706218</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C167">
         <f t="shared" si="2"/>
-        <v>-1.2971698113207648</v>
+        <v>1.2971698113207648</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="C168">
         <f t="shared" si="2"/>
-        <v>1.6298020954598436</v>
+        <v>-1.6298020954598436</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="C170">
         <f t="shared" si="2"/>
-        <v>-2.2485207100591782</v>
+        <v>2.2485207100591782</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="C171">
         <f t="shared" si="2"/>
-        <v>1.0416666666666732</v>
+        <v>-1.0416666666666732</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C172">
         <f t="shared" si="2"/>
-        <v>-0.93567251461987977</v>
+        <v>0.93567251461987977</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
-        <v>-0.81112398609502057</v>
+        <v>0.81112398609502057</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C174">
         <f t="shared" si="2"/>
-        <v>1.1494252873563218</v>
+        <v>-1.1494252873563218</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="C175">
         <f t="shared" si="2"/>
-        <v>-1.9767441860465151</v>
+        <v>1.9767441860465151</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="C176">
         <f t="shared" si="2"/>
-        <v>-1.3683010262257729</v>
+        <v>1.3683010262257729</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="C177">
         <f t="shared" si="2"/>
-        <v>2.6996625421822333</v>
+        <v>-2.6996625421822333</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="C178">
         <f t="shared" si="2"/>
-        <v>-2.4277456647398781</v>
+        <v>2.4277456647398781</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="C179">
         <f t="shared" si="2"/>
-        <v>-1.8058690744921093</v>
+        <v>1.8058690744921093</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="C180">
         <f t="shared" si="2"/>
-        <v>0.88691796008868873</v>
+        <v>-0.88691796008868873</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="C182">
         <f t="shared" si="2"/>
-        <v>-1.0067114093959635</v>
+        <v>1.0067114093959635</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="C183">
         <f t="shared" si="2"/>
-        <v>-0.22148394241417813</v>
+        <v>0.22148394241417813</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="C184">
         <f t="shared" si="2"/>
-        <v>0.88397790055248315</v>
+        <v>-0.88397790055248315</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="C185">
         <f t="shared" si="2"/>
-        <v>-2.0066889632106992</v>
+        <v>2.0066889632106992</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C186">
         <f t="shared" si="2"/>
-        <v>-0.98360655737705538</v>
+        <v>0.98360655737705538</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C187">
         <f t="shared" si="2"/>
-        <v>0.324675324675337</v>
+        <v>-0.324675324675337</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="C188">
         <f t="shared" si="2"/>
-        <v>-1.6286644951140066</v>
+        <v>1.6286644951140066</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C189">
         <f t="shared" si="2"/>
-        <v>-0.53418803418803418</v>
+        <v>0.53418803418803418</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="C190">
         <f t="shared" si="2"/>
-        <v>0.3188097768331532</v>
+        <v>-0.3188097768331532</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C191">
         <f t="shared" si="2"/>
-        <v>0.42643923240937254</v>
+        <v>-0.42643923240937254</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C192">
         <f t="shared" si="2"/>
-        <v>-1.8201284796573753</v>
+        <v>1.8201284796573753</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="C193">
         <f t="shared" si="2"/>
-        <v>-0.8412197686645756</v>
+        <v>0.8412197686645756</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="C194">
         <f t="shared" si="2"/>
-        <v>0.20855057351408013</v>
+        <v>-0.20855057351408013</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="C195">
         <f t="shared" si="2"/>
-        <v>-0.83594566353186739</v>
+        <v>0.83594566353186739</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -3895,8 +3895,8 @@
         <v>97</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C259" si="3">(B195-B196)/B195*100</f>
-        <v>-0.5181347150259068</v>
+        <f t="shared" ref="C196:C259" si="3" xml:space="preserve"> (B196-B195)/B195*100</f>
+        <v>0.5181347150259068</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="C197">
         <f t="shared" si="3"/>
-        <v>0.82474226804123418</v>
+        <v>-0.82474226804123418</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="C198">
         <f t="shared" si="3"/>
-        <v>-1.8711018711018681</v>
+        <v>1.8711018711018681</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="C199">
         <f t="shared" si="3"/>
-        <v>-0.20408163265306412</v>
+        <v>0.20408163265306412</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C200">
         <f t="shared" si="3"/>
-        <v>-0.61099796334011636</v>
+        <v>0.61099796334011636</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C201">
         <f t="shared" si="3"/>
-        <v>-0.2024291497975737</v>
+        <v>0.2024291497975737</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="C202">
         <f t="shared" si="3"/>
-        <v>-0.90909090909091472</v>
+        <v>0.90909090909091472</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="C203">
         <f t="shared" si="3"/>
-        <v>-0.2002002002001888</v>
+        <v>0.2002002002001888</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="C204">
         <f t="shared" si="3"/>
-        <v>0.29970029970029688</v>
+        <v>-0.29970029970029688</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C205">
         <f t="shared" si="3"/>
-        <v>-0.80160320641282279</v>
+        <v>0.80160320641282279</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C206">
         <f t="shared" si="3"/>
-        <v>-0.99403578528827041</v>
+        <v>0.99403578528827041</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C207">
         <f t="shared" si="3"/>
-        <v>0.39370078740156644</v>
+        <v>-0.39370078740156644</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C208">
         <f t="shared" si="3"/>
-        <v>0.19762845849802652</v>
+        <v>-0.19762845849802652</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="C209">
         <f t="shared" si="3"/>
-        <v>-0.59405940594058848</v>
+        <v>0.59405940594058848</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C210">
         <f t="shared" si="3"/>
-        <v>2.2637795275590524</v>
+        <v>-2.2637795275590524</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="C211">
         <f t="shared" si="3"/>
-        <v>-1.0070493454179255</v>
+        <v>1.0070493454179255</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="C212">
         <f t="shared" si="3"/>
-        <v>1.4955134596211366</v>
+        <v>-1.4955134596211366</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="C213">
         <f t="shared" si="3"/>
-        <v>-1.6194331983805754</v>
+        <v>1.6194331983805754</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="C214">
         <f t="shared" si="3"/>
-        <v>1.8924302788844678</v>
+        <v>-1.8924302788844678</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="C215">
         <f t="shared" si="3"/>
-        <v>2.1319796954314665</v>
+        <v>-2.1319796954314665</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="C216">
         <f t="shared" si="3"/>
-        <v>4.4605809128630813</v>
+        <v>-4.4605809128630813</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="C217">
         <f t="shared" si="3"/>
-        <v>3.5830618892508119</v>
+        <v>-3.5830618892508119</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
-        <v>6.9819819819819857</v>
+        <v>-6.9819819819819857</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C219">
         <f t="shared" si="3"/>
-        <v>3.1476997578692427</v>
+        <v>-3.1476997578692427</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C221">
         <f t="shared" si="3"/>
-        <v>3.0000000000000071</v>
+        <v>-3.0000000000000071</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="C222">
         <f t="shared" si="3"/>
-        <v>-4.3814432989690797</v>
+        <v>4.3814432989690797</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C223">
         <f t="shared" si="3"/>
-        <v>-1.604938271604935</v>
+        <v>1.604938271604935</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="C224">
         <f t="shared" si="3"/>
-        <v>1.0935601458080091</v>
+        <v>-1.0935601458080091</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C225">
         <f t="shared" si="3"/>
-        <v>-1.3513513513513442</v>
+        <v>1.3513513513513442</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="C226">
         <f t="shared" si="3"/>
-        <v>-3.9999999999999964</v>
+        <v>3.9999999999999964</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="C227">
         <f t="shared" si="3"/>
-        <v>1.9813519813519846</v>
+        <v>-1.9813519813519846</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C228">
         <f t="shared" si="3"/>
-        <v>-0.59453032104637338</v>
+        <v>0.59453032104637338</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="C229">
         <f t="shared" si="3"/>
-        <v>-0.47281323877069231</v>
+        <v>0.47281323877069231</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="C230">
         <f t="shared" si="3"/>
-        <v>-1.4117647058823564</v>
+        <v>1.4117647058823564</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="C231">
         <f t="shared" si="3"/>
-        <v>1.0440835266821411</v>
+        <v>-1.0440835266821411</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="C232">
         <f t="shared" si="3"/>
-        <v>-2.3446658851113718</v>
+        <v>2.3446658851113718</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="C233">
         <f t="shared" si="3"/>
-        <v>-2.0618556701030895</v>
+        <v>2.0618556701030895</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="C234">
         <f t="shared" si="3"/>
-        <v>-3.142536475869822</v>
+        <v>3.142536475869822</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C235">
         <f t="shared" si="3"/>
-        <v>0.97932535364527273</v>
+        <v>-0.97932535364527273</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="C237">
         <f t="shared" si="3"/>
-        <v>-1.3186813186813218</v>
+        <v>1.3186813186813218</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="C238">
         <f t="shared" si="3"/>
-        <v>-1.1930585683297117</v>
+        <v>1.1930585683297117</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="C239">
         <f t="shared" si="3"/>
-        <v>-2.1436227224008575</v>
+        <v>2.1436227224008575</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C240">
         <f t="shared" si="3"/>
-        <v>0.52465897166841557</v>
+        <v>-0.52465897166841557</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="C241">
         <f t="shared" si="3"/>
-        <v>-1.8987341772151869</v>
+        <v>1.8987341772151869</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C242">
         <f t="shared" si="3"/>
-        <v>0.72463768115940863</v>
+        <v>-0.72463768115940863</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="C243">
         <f t="shared" si="3"/>
-        <v>-1.0427528675703857</v>
+        <v>1.0427528675703857</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="C244">
         <f t="shared" si="3"/>
-        <v>-0.41279669762641019</v>
+        <v>0.41279669762641019</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="C245">
         <f t="shared" si="3"/>
-        <v>-0.20554984583761854</v>
+        <v>0.20554984583761854</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="C246">
         <f t="shared" si="3"/>
-        <v>-0.9230769230769289</v>
+        <v>0.9230769230769289</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="C247">
         <f t="shared" si="3"/>
-        <v>1.524390243902439</v>
+        <v>-1.524390243902439</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="C248">
         <f t="shared" si="3"/>
-        <v>-3.1991744066047412</v>
+        <v>3.1991744066047412</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
-        <v>0.79999999999999727</v>
+        <v>-0.79999999999999727</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="C250">
         <f t="shared" si="3"/>
-        <v>1.6129032258064602</v>
+        <v>-1.6129032258064602</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="C251">
         <f t="shared" si="3"/>
-        <v>-1.2295081967213144</v>
+        <v>1.2295081967213144</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="C252">
         <f t="shared" si="3"/>
-        <v>0.70850202429150089</v>
+        <v>-0.70850202429150089</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="C253">
         <f t="shared" si="3"/>
-        <v>1.1213047910295559</v>
+        <v>-1.1213047910295559</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
-        <v>-0.41237113402062436</v>
+        <v>0.41237113402062436</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="C255">
         <f t="shared" si="3"/>
-        <v>-0.51334702258726894</v>
+        <v>0.51334702258726894</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
-        <v>-0.71501532175688309</v>
+        <v>0.71501532175688309</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C257">
         <f t="shared" si="3"/>
-        <v>1.4198782961460361</v>
+        <v>-1.4198782961460361</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="C258">
         <f t="shared" si="3"/>
-        <v>-1.6460905349794182</v>
+        <v>1.6460905349794182</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C259">
         <f t="shared" si="3"/>
-        <v>1.1133603238866339</v>
+        <v>-1.1133603238866339</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -4663,8 +4663,8 @@
         <v>98.5</v>
       </c>
       <c r="C260">
-        <f t="shared" ref="C260:C323" si="4">(B259-B260)/B259*100</f>
-        <v>-0.81883316274308815</v>
+        <f t="shared" ref="C260:C323" si="4" xml:space="preserve"> (B260-B259)/B259*100</f>
+        <v>0.81883316274308815</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="C261">
         <f t="shared" si="4"/>
-        <v>-0.2030456852791907</v>
+        <v>0.2030456852791907</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="C262">
         <f t="shared" si="4"/>
-        <v>1.2158054711246229</v>
+        <v>-1.2158054711246229</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="C263">
         <f t="shared" si="4"/>
-        <v>1.4358974358974419</v>
+        <v>-1.4358974358974419</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="C264">
         <f t="shared" si="4"/>
-        <v>0.62434963579603997</v>
+        <v>-0.62434963579603997</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="C265">
         <f t="shared" si="4"/>
-        <v>-0.41884816753927295</v>
+        <v>0.41884816753927295</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="C266">
         <f t="shared" si="4"/>
-        <v>0.83420229405632051</v>
+        <v>-0.83420229405632051</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="C267">
         <f t="shared" si="4"/>
-        <v>-0.73606729758149625</v>
+        <v>0.73606729758149625</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="C268">
         <f t="shared" si="4"/>
-        <v>-1.7745302713987505</v>
+        <v>1.7745302713987505</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="C269">
         <f t="shared" si="4"/>
-        <v>0.10256410256409673</v>
+        <v>-0.10256410256409673</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="C270">
         <f t="shared" si="4"/>
-        <v>0.82135523613964201</v>
+        <v>-0.82135523613964201</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="C271">
         <f t="shared" si="4"/>
-        <v>-1.759834368530024</v>
+        <v>1.759834368530024</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="C272">
         <f t="shared" si="4"/>
-        <v>1.5259409969481181</v>
+        <v>-1.5259409969481181</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C273">
         <f t="shared" si="4"/>
-        <v>-1.9628099173553779</v>
+        <v>1.9628099173553779</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C274">
         <f t="shared" si="4"/>
-        <v>0.30395136778115212</v>
+        <v>-0.30395136778115212</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="C275">
         <f t="shared" si="4"/>
-        <v>0.71138211382114103</v>
+        <v>-0.71138211382114103</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C276">
         <f t="shared" si="4"/>
-        <v>-1.7400204708290714</v>
+        <v>1.7400204708290714</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="C277">
         <f t="shared" si="4"/>
-        <v>-0.20120724346075317</v>
+        <v>0.20120724346075317</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="C278">
         <f t="shared" si="4"/>
-        <v>0.70281124497990832</v>
+        <v>-0.70281124497990832</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="C280">
         <f t="shared" si="4"/>
-        <v>-0.30333670374114979</v>
+        <v>0.30333670374114979</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="C281">
         <f t="shared" si="4"/>
-        <v>0.4032258064516186</v>
+        <v>-0.4032258064516186</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="C282">
         <f t="shared" si="4"/>
-        <v>0.50607287449392713</v>
+        <v>-0.50607287449392713</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="C283">
         <f t="shared" si="4"/>
-        <v>-0.10172939979654987</v>
+        <v>0.10172939979654987</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="C284">
         <f t="shared" si="4"/>
-        <v>-1.6260162601625958</v>
+        <v>1.6260162601625958</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="C285">
         <f t="shared" si="4"/>
-        <v>3.5000000000000004</v>
+        <v>-3.5000000000000004</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C286">
         <f t="shared" si="4"/>
-        <v>-2.4870466321243581</v>
+        <v>2.4870466321243581</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="C287">
         <f t="shared" si="4"/>
-        <v>-0.30333670374114979</v>
+        <v>0.30333670374114979</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="C288">
         <f t="shared" si="4"/>
-        <v>0.10080645161291181</v>
+        <v>-0.10080645161291181</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="C289">
         <f t="shared" si="4"/>
-        <v>-1.7154389505549978</v>
+        <v>1.7154389505549978</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="C290">
         <f t="shared" si="4"/>
-        <v>2.3809523809523725</v>
+        <v>-2.3809523809523725</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
-        <v>-1.0162601626016259</v>
+        <v>1.0162601626016259</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C293">
         <f t="shared" si="4"/>
-        <v>-0.80482897384305552</v>
+        <v>0.80482897384305552</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C294">
         <f t="shared" si="4"/>
-        <v>-9.9800399201591145E-2</v>
+        <v>9.9800399201591145E-2</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C296">
         <f t="shared" si="4"/>
-        <v>-1.3958125623130666</v>
+        <v>1.3958125623130666</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="C297">
         <f t="shared" si="4"/>
-        <v>2.5565388397246886</v>
+        <v>-2.5565388397246886</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
-        <v>-0.30272452068618705</v>
+        <v>0.30272452068618705</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="C299">
         <f t="shared" si="4"/>
-        <v>-0.80482897384305552</v>
+        <v>0.80482897384305552</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="C300">
         <f t="shared" si="4"/>
-        <v>1.1976047904191645</v>
+        <v>-1.1976047904191645</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="C301">
         <f t="shared" si="4"/>
-        <v>-0.70707070707070996</v>
+        <v>0.70707070707070996</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="C302">
         <f t="shared" si="4"/>
-        <v>-1.303911735205614</v>
+        <v>1.303911735205614</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="C303">
         <f t="shared" si="4"/>
-        <v>9.900990099009338E-2</v>
+        <v>-9.900990099009338E-2</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="C304">
         <f t="shared" si="4"/>
-        <v>0.89197224975223544</v>
+        <v>-0.89197224975223544</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C305">
         <f t="shared" si="4"/>
-        <v>-0.70000000000000284</v>
+        <v>0.70000000000000284</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="C306">
         <f t="shared" si="4"/>
-        <v>1.6881827209533296</v>
+        <v>-1.6881827209533296</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="C307">
         <f t="shared" si="4"/>
-        <v>-2.0202020202020203</v>
+        <v>2.0202020202020203</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="C308">
         <f t="shared" si="4"/>
-        <v>1.3861386138613918</v>
+        <v>-1.3861386138613918</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="C309">
         <f t="shared" si="4"/>
-        <v>-1.6064257028112534</v>
+        <v>1.6064257028112534</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C310">
         <f t="shared" si="4"/>
-        <v>0.19762845849802652</v>
+        <v>-0.19762845849802652</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="C311">
         <f t="shared" si="4"/>
-        <v>-0.49504950495049505</v>
+        <v>0.49504950495049505</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="C312">
         <f t="shared" si="4"/>
-        <v>0.19704433497537227</v>
+        <v>-0.19704433497537227</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -5300,7 +5300,7 @@
       </c>
       <c r="C313">
         <f t="shared" si="4"/>
-        <v>1.8756169792694881</v>
+        <v>-1.8756169792694881</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="C314">
         <f t="shared" si="4"/>
-        <v>-1.4084507042253436</v>
+        <v>1.4084507042253436</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="C315">
         <f t="shared" si="4"/>
-        <v>-0.89285714285714857</v>
+        <v>0.89285714285714857</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C316">
         <f t="shared" si="4"/>
-        <v>0.58997050147493468</v>
+        <v>-0.58997050147493468</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="C317">
         <f t="shared" si="4"/>
-        <v>-1.7804154302670738</v>
+        <v>1.7804154302670738</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="C318">
         <f t="shared" si="4"/>
-        <v>-0.38872691933915593</v>
+        <v>0.38872691933915593</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="C320">
         <f t="shared" si="4"/>
-        <v>-0.38722168441433275</v>
+        <v>0.38722168441433275</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="C321">
         <f t="shared" si="4"/>
-        <v>-2.2179363548698139</v>
+        <v>2.2179363548698139</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="C322">
         <f t="shared" si="4"/>
-        <v>1.0377358490565984</v>
+        <v>-1.0377358490565984</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C323">
         <f t="shared" si="4"/>
-        <v>1.3346043851286995</v>
+        <v>-1.3346043851286995</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -5431,8 +5431,8 @@
         <v>107</v>
       </c>
       <c r="C324">
-        <f t="shared" ref="C324:C387" si="5">(B323-B324)/B323*100</f>
-        <v>-3.3816425120772946</v>
+        <f t="shared" ref="C324:C387" si="5" xml:space="preserve"> (B324-B323)/B323*100</f>
+        <v>3.3816425120772946</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C325">
         <f t="shared" si="5"/>
-        <v>0.46728971962616817</v>
+        <v>-0.46728971962616817</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C326">
         <f t="shared" si="5"/>
-        <v>0.75117370892018509</v>
+        <v>-0.75117370892018509</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C327">
         <f t="shared" si="5"/>
-        <v>1.4191106906338693</v>
+        <v>-1.4191106906338693</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="C328">
         <f t="shared" si="5"/>
-        <v>-1.2476007677543157</v>
+        <v>1.2476007677543157</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="C329">
         <f t="shared" si="5"/>
-        <v>0.75829383886255652</v>
+        <v>-0.75829383886255652</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="C330">
         <f t="shared" si="5"/>
-        <v>-1.6236867239732597</v>
+        <v>1.6236867239732597</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="C332">
         <f t="shared" si="5"/>
-        <v>1.8796992481203008</v>
+        <v>-1.8796992481203008</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="C333">
         <f t="shared" si="5"/>
-        <v>-1.0536398467432895</v>
+        <v>1.0536398467432895</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="C334">
         <f t="shared" si="5"/>
-        <v>1.0426540284360135</v>
+        <v>-1.0426540284360135</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="C335">
         <f t="shared" si="5"/>
-        <v>0.19157088122605637</v>
+        <v>-0.19157088122605637</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C336">
         <f t="shared" si="5"/>
-        <v>1.8234165067178558</v>
+        <v>-1.8234165067178558</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="C337">
         <f t="shared" si="5"/>
-        <v>-0.97751710654936463</v>
+        <v>0.97751710654936463</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
-        <v>9.6805421103576289E-2</v>
+        <v>-9.6805421103576289E-2</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="C339">
         <f t="shared" si="5"/>
-        <v>0.29069767441860189</v>
+        <v>-0.29069767441860189</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="C340">
         <f t="shared" si="5"/>
-        <v>-0.68027210884352629</v>
+        <v>0.68027210884352629</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="C341">
         <f t="shared" si="5"/>
-        <v>1.6409266409266301</v>
+        <v>-1.6409266409266301</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="C342">
         <f t="shared" si="5"/>
-        <v>-0.58881256133463622</v>
+        <v>0.58881256133463622</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="C343">
         <f t="shared" si="5"/>
-        <v>1.0731707317073116</v>
+        <v>-1.0731707317073116</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C344">
         <f t="shared" si="5"/>
-        <v>0.49309664694280081</v>
+        <v>-0.49309664694280081</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="C345">
         <f t="shared" si="5"/>
-        <v>-0.19821605550048427</v>
+        <v>0.19821605550048427</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="C346">
         <f t="shared" si="5"/>
-        <v>0.79129574678535819</v>
+        <v>-0.79129574678535819</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="C347">
         <f t="shared" si="5"/>
-        <v>0.49850448654037888</v>
+        <v>-0.49850448654037888</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="C348">
         <f t="shared" si="5"/>
-        <v>-0.20040080160320925</v>
+        <v>0.20040080160320925</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="C349">
         <f t="shared" si="5"/>
-        <v>2.2000000000000028</v>
+        <v>-2.2000000000000028</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
-        <v>-2.862985685071572</v>
+        <v>2.862985685071572</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="C351">
         <f t="shared" si="5"/>
-        <v>-1.1928429423459275</v>
+        <v>1.1928429423459275</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="C352">
         <f t="shared" si="5"/>
-        <v>10.609037328094301</v>
+        <v>-10.609037328094301</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="C353">
         <f t="shared" si="5"/>
-        <v>21.538461538461533</v>
+        <v>-21.538461538461533</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="C354">
         <f t="shared" si="5"/>
-        <v>-11.484593837534996</v>
+        <v>11.484593837534996</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="C355">
         <f t="shared" si="5"/>
-        <v>-11.809045226130662</v>
+        <v>11.809045226130662</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="C356">
         <f t="shared" si="5"/>
-        <v>-2.0224719101123565</v>
+        <v>2.0224719101123565</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="C357">
         <f t="shared" si="5"/>
-        <v>0.44052863436122408</v>
+        <v>-0.44052863436122408</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="C358">
         <f t="shared" si="5"/>
-        <v>-2.8761061946902586</v>
+        <v>2.8761061946902586</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -5852,7 +5852,7 @@
       </c>
       <c r="C359">
         <f t="shared" si="5"/>
-        <v>-3.763440860215054</v>
+        <v>3.763440860215054</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="C360">
         <f t="shared" si="5"/>
-        <v>-1.243523316062179</v>
+        <v>1.243523316062179</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="C362">
         <f t="shared" si="5"/>
-        <v>0.30706243602865624</v>
+        <v>-0.30706243602865624</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="C363">
         <f t="shared" si="5"/>
-        <v>1.4373716632443589</v>
+        <v>-1.4373716632443589</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="C364">
         <f t="shared" si="5"/>
-        <v>-1.6666666666666607</v>
+        <v>1.6666666666666607</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="C365">
         <f t="shared" si="5"/>
-        <v>0.20491803278687359</v>
+        <v>-0.20491803278687359</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="C366">
         <f t="shared" si="5"/>
-        <v>1.1293634496920006</v>
+        <v>-1.1293634496920006</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="C367">
         <f t="shared" si="5"/>
-        <v>0.8307372793354072</v>
+        <v>-0.8307372793354072</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="C368">
         <f t="shared" si="5"/>
-        <v>-1.0471204188481675</v>
+        <v>1.0471204188481675</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="C369">
         <f t="shared" si="5"/>
-        <v>4.248704663212429</v>
+        <v>-4.248704663212429</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="C371">
         <f t="shared" si="5"/>
-        <v>-3.1385281385281294</v>
+        <v>3.1385281385281294</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="C372">
         <f t="shared" si="5"/>
-        <v>-0.73452256033578478</v>
+        <v>0.73452256033578478</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="C373">
         <f t="shared" si="5"/>
-        <v>-1.1458333333333273</v>
+        <v>1.1458333333333273</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="C374">
         <f t="shared" si="5"/>
-        <v>-0.20597322348095043</v>
+        <v>0.20597322348095043</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C375">
         <f t="shared" si="5"/>
-        <v>-0.41109969167523708</v>
+        <v>0.41109969167523708</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
-        <v>4.8106448311156633</v>
+        <v>-4.8106448311156633</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="C377">
         <f t="shared" si="5"/>
-        <v>-1.8279569892473151</v>
+        <v>1.8279569892473151</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C378">
         <f t="shared" si="5"/>
-        <v>-0.10559662090812492</v>
+        <v>0.10559662090812492</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="C379">
         <f t="shared" si="5"/>
-        <v>-1.2658227848101298</v>
+        <v>1.2658227848101298</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="C380">
         <f t="shared" si="5"/>
-        <v>0.624999999999994</v>
+        <v>-0.624999999999994</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="C381">
         <f t="shared" si="5"/>
-        <v>0.73375262054507628</v>
+        <v>-0.73375262054507628</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="C382">
         <f t="shared" si="5"/>
-        <v>-1.2671594508975743</v>
+        <v>1.2671594508975743</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="C383">
         <f t="shared" si="5"/>
-        <v>0.93847758081335297</v>
+        <v>-0.93847758081335297</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="C384">
         <f t="shared" si="5"/>
-        <v>-0.8421052631578918</v>
+        <v>0.8421052631578918</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="C385">
         <f t="shared" si="5"/>
-        <v>1.4613778705636653</v>
+        <v>-1.4613778705636653</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="C386">
         <f t="shared" si="5"/>
-        <v>-1.9067796610169461</v>
+        <v>1.9067796610169461</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C387">
         <f t="shared" si="5"/>
-        <v>-2.4948024948024861</v>
+        <v>2.4948024948024861</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -6199,8 +6199,8 @@
         <v>95.5</v>
       </c>
       <c r="C388">
-        <f t="shared" ref="C388" si="6">(B387-B388)/B387*100</f>
-        <v>3.1440162271805216</v>
+        <f t="shared" ref="C388" si="6" xml:space="preserve"> (B388-B387)/B387*100</f>
+        <v>-3.1440162271805216</v>
       </c>
     </row>
   </sheetData>

--- a/Data prep/macro_data.xlsx
+++ b/Data prep/macro_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lena/Git/GDP-nowcasting/Data prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263377FC-F198-6B49-9843-5DD71028EBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB130327-DAEB-B248-9845-E03959A94DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="580" windowWidth="27240" windowHeight="15500" activeTab="1" xr2:uid="{31849CCF-4493-4A40-A62C-CB2ED16BC9FE}"/>
   </bookViews>

--- a/Data prep/macro_data.xlsx
+++ b/Data prep/macro_data.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lena/Git/GDP-nowcasting/Data prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB130327-DAEB-B248-9845-E03959A94DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F454C8-B825-3744-BB07-107F85EEC27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="580" windowWidth="27240" windowHeight="15500" activeTab="1" xr2:uid="{31849CCF-4493-4A40-A62C-CB2ED16BC9FE}"/>
+    <workbookView xWindow="1080" yWindow="580" windowWidth="27240" windowHeight="15500" xr2:uid="{31849CCF-4493-4A40-A62C-CB2ED16BC9FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
     <sheet name="gdp growth" sheetId="1" r:id="rId2"/>
     <sheet name="IP index" sheetId="3" r:id="rId3"/>
     <sheet name="DE ESI" sheetId="2" r:id="rId4"/>
+    <sheet name="vacancies" sheetId="5" r:id="rId5"/>
+    <sheet name="ifo" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ESI</t>
   </si>
@@ -85,12 +87,39 @@
   <si>
     <t>log_gdp</t>
   </si>
+  <si>
+    <t>vacancies</t>
+  </si>
+  <si>
+    <t>Additional Macro Data</t>
+  </si>
+  <si>
+    <t>Vacancies</t>
+  </si>
+  <si>
+    <t>https://statistik.arbeitsagentur.de/SiteGlobals/Forms/Suche/Einzelheftsuche_Formular.html;jsessionid=0E503E76EEA85E8E691B3C64CD22CCBE?nn=24346&amp;topic_f=saisonbereinigte-zeitreihen</t>
+  </si>
+  <si>
+    <t>vacancies_mom</t>
+  </si>
+  <si>
+    <t>ifo_klima</t>
+  </si>
+  <si>
+    <t>ifo Geschäftsklima</t>
+  </si>
+  <si>
+    <t>https://www.ifo.de/fakten/2023-06-26/ifo-geschaeftsklimaindex-sinkt-juni-2023.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +139,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,7 +169,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -142,6 +177,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2298,6 +2339,1604 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>vacancies!$A$3:$A$225</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="223"/>
+                <c:pt idx="0">
+                  <c:v>38322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38596</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38626</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38657</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38687</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38749</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38777</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38808</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38838</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38869</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38930</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38961</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39052</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39142</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39173</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39203</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39234</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39264</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39295</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39326</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39356</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39387</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39417</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39448</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39479</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39508</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39539</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>39569</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>39630</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39661</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39722</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39753</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39783</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39814</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39845</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39873</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39934</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39965</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40026</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40057</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40087</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40118</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>40148</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40179</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40210</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40238</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40269</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40299</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40391</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40422</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40452</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40483</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>45078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vacancies!$B$3:$B$225</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="223"/>
+                <c:pt idx="0">
+                  <c:v>204209.55024000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>213678.257445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219241.01585900001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>228144.93617599999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>236072.26611200001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>246175.553224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>253067.71692499999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>261136.61921400001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>268635.05880200001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>276988.56910999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284625.52759299998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>285193.949662</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>287853.41708599997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>293332.52747999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300653.26134299999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>309062.81153800001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>322385.80494200002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>339273.79225300002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>349348.61822800001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>362316.88203600002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>372573.682799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>381065.85099399998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>392158.44594399998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>402428.02081700001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>416906.132904</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>424168.59608300001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>431563.24337799998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>434246.863625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>436109.55995399994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>432541.22565699997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>430741.39950599999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>424328.10639099998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>421451.80508199998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>414284.84497799992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>411822.24912599992</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>407946.709217</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>405148.68474300002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>399581.42220799997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>395999.07873900002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>396120.21494799998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>393322.18841999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>390254.30396400002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>398564.17415899999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>396282.96022800001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>392181.09363099997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>389220.86201500002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>383007.87703799998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>373695.083323</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>356192.27529299998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>342490.19926000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>332821.05268800003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>319160.62347300001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>304163.19011699996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>293524.04878499999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>285468.62871100003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>281419.02616100002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>283789.90042800002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>287855.79674100003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>289890.71931999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>294346.66616700002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>303242.89357800002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>306344.41059799999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>311987.98395999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>322175.64283500001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>332573.93191599997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>348268.717596</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>357419.80353900004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>370734.20224100002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>377150.19636599999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>381625.85602400004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>391820.39138099999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>399259.75629500003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>408506.60203499999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>419854.44290999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>435032.55571400002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>443581.14345899998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>455016.69083399995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>459642.08945700002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>465079.52259599994</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>469723.52444299997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>475631.03336599999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>483248.76055900002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>490377.25185499998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>497109.38196700002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>499119.718811</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>500917.89461700001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>491200.43236699997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>490515.804818</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>491005.04891500005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>489685.04020300001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>485961.326443</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>479844.22197100008</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>474028.36485999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>468206.15493800008</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>460338.60875000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>454381.98031399999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>447270.183785</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>462076.16975300002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>462424.205969</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>459889.30256699998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>452764.17045500007</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>451341.45938799996</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>449088.29948300001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>453132.15925100003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>454169.80612899998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>457662.13434699993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>458155.25329600007</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>459803.40707900003</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>464303.191307</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>464183.28472599998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>469078.22973399999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>472913.94373</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>479140.67187099997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>477949.05594999995</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>485725.16249500006</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>487872.82692800002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>497868.02257600002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>503503.05055999995</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>507131.13012599997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>514350.97350299999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>520879.053312</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>525391.28826900001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>533487.17511399998</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>541725.30775499996</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>547950.43957799999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>553665.78276500001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>562861.35629499995</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>572691.59451900003</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>577048.05842200003</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>582481.97302899999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>598759.10454700002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>609036.51317499997</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>614751.28124100005</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>624795.01106100006</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>630509.68967600004</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>636207.46579100005</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>638769.56345400005</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>653068.47977700003</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>655515.32399099995</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>656565.97357599996</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>663525.73538099998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>666895.96954600001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>674749.58134399995</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>678235.98885199998</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>681960.17044699995</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>692053.70271900005</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>692941.00640800002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>696611.89830899995</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>707663.423648</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>713906.03532100003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>721461.20930999995</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>731949.02891700005</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>741199.46255299996</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>749300.781173</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>759163.23914199998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>767741.04947299999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>786476.38875399996</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>784387.01797499997</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>785716.14781999995</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>786108.31999900006</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>789123.78500100004</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>794066.70091300004</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>796086.23565599998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>802020.46904999996</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>800725.02402400004</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>805981.58609400003</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>800759.01476799999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>801733.07226699998</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>806333.30794500001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>805406.02905999997</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>807001.17509799998</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>808130.78355299996</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>802872.52320099995</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>794717.63969500002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>789052.89445000002</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>778742.81427900004</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>767257.83184999996</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>758832.49505999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>741919.27561000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>731240.27814900002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>708485.59572500002</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>708993.581504</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>710953.48290299997</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>702081.14719599998</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>633489.321535</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>587032.81989899999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>564416.27681399998</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>557848.23983099998</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>562376.03425200004</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>568173.57822300005</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>584791.63889199996</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>596116.189044</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>600707.89006100001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>600374.75310099998</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>601309.61082399997</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>619968.86723199999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>636650.71227200003</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>657777.99803699995</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>686053.511084</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>724277.98114000005</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>748331.99130300002</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>768025.15258999995</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>785013.60580899997</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>802246.43027600006</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>820868.42761300004</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>838153.01913999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>849179.314227</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>854681.73747000005</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>863323.15442799998</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>871060.21314500005</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>868145.12596700003</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>855975.15656799998</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>850309.95540700003</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>838814.94528999995</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>822092.758164</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>817113.19071999996</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>807901.35934800003</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>808684.742203</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>803536.48203399999</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>792942.86015399999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>784138.61479400005</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>772095.16741200001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>761822.29395299999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A70-1341-9C62-B5D9FA8B5CDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="290602640"/>
+        <c:axId val="290604800"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="290602640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290604800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="290604800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290602640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2379,6 +4018,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3966,6 +5645,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4071,6 +6266,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3F305C-9707-C6DB-0824-AEB619D2CA3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4376,10 +6612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97B4AF1-7542-E049-9574-4D535DF60CA2}">
-  <dimension ref="A3:B5"/>
+  <dimension ref="A3:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4411,9 +6647,31 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" location="abreadcrumb" xr:uid="{445DF65F-FE3C-7D4D-8233-5F040BD52569}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{DFF227C6-2ABB-F04E-8A9C-C32B591AB1B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4423,7 +6681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D7B997-9DAC-9E4F-B96D-CCE7A7F1DEA7}">
   <dimension ref="A1:CB130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+    <sheetView topLeftCell="A110" workbookViewId="0">
       <selection activeCell="O124" sqref="O124"/>
     </sheetView>
   </sheetViews>
@@ -6099,7 +8357,7 @@
   <dimension ref="A1:E388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13862,8 +16120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE0FD4-F81B-E648-898A-472694239B46}">
   <dimension ref="A1:B462"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17571,4 +19829,4496 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6F8F9C-511B-6F4E-9041-84831B246F37}">
+  <dimension ref="A2:C225"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A225"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>38322</v>
+      </c>
+      <c r="B3">
+        <v>204209.55024000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>38353</v>
+      </c>
+      <c r="B4">
+        <v>213678.257445</v>
+      </c>
+      <c r="C4">
+        <f>(B4-B3)/B3*100</f>
+        <v>4.6367602268707602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>38384</v>
+      </c>
+      <c r="B5">
+        <v>219241.01585900001</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C68" si="0">(B5-B4)/B4*100</f>
+        <v>2.6033338536710242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>38412</v>
+      </c>
+      <c r="B6">
+        <v>228144.93617599999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4.0612475189069279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>38443</v>
+      </c>
+      <c r="B7">
+        <v>236072.26611200001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3.4746902863031637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>38473</v>
+      </c>
+      <c r="B8">
+        <v>246175.553224</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4.2797433507952505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>38504</v>
+      </c>
+      <c r="B9">
+        <v>253067.71692499999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.7996946125388282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>38534</v>
+      </c>
+      <c r="B10">
+        <v>261136.61921400001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>3.188436038798006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>38565</v>
+      </c>
+      <c r="B11">
+        <v>268635.05880200001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2.8714623060410687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>38596</v>
+      </c>
+      <c r="B12">
+        <v>276988.56910999998</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3.1096128499582778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>38626</v>
+      </c>
+      <c r="B13">
+        <v>284625.52759299998</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.7571385012524265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>38657</v>
+      </c>
+      <c r="B14">
+        <v>285193.949662</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.19970874496290322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>38687</v>
+      </c>
+      <c r="B15">
+        <v>287853.41708599997</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.93251186680217568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>38718</v>
+      </c>
+      <c r="B16">
+        <v>293332.52747999999</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.9034376765321017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>38749</v>
+      </c>
+      <c r="B17">
+        <v>300653.26134299999</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2.4957115823096516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>38777</v>
+      </c>
+      <c r="B18">
+        <v>309062.81153800001</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2.7970926233878401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>38808</v>
+      </c>
+      <c r="B19">
+        <v>322385.80494200002</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>4.3107720847100088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>38838</v>
+      </c>
+      <c r="B20">
+        <v>339273.79225300002</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>5.2384401087505381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>38869</v>
+      </c>
+      <c r="B21">
+        <v>349348.61822800001</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2.9695267377113179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>38899</v>
+      </c>
+      <c r="B22">
+        <v>362316.88203600002</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>3.7121268358749795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>38930</v>
+      </c>
+      <c r="B23">
+        <v>372573.682799</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2.8308923132046759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>38961</v>
+      </c>
+      <c r="B24">
+        <v>381065.85099399998</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2.2793258319271632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>38991</v>
+      </c>
+      <c r="B25">
+        <v>392158.44594399998</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2.9109391253677717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>39022</v>
+      </c>
+      <c r="B26">
+        <v>402428.02081700001</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2.6187310203862153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>39052</v>
+      </c>
+      <c r="B27">
+        <v>416906.132904</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>3.5976898570847182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>39083</v>
+      </c>
+      <c r="B28">
+        <v>424168.59608300001</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1.741990008257404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>39114</v>
+      </c>
+      <c r="B29">
+        <v>431563.24337799998</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1.7433273852157154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>39142</v>
+      </c>
+      <c r="B30">
+        <v>434246.863625</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.62183707444460679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>39173</v>
+      </c>
+      <c r="B31">
+        <v>436109.55995399994</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.42894871213358909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>39203</v>
+      </c>
+      <c r="B32">
+        <v>432541.22565699997</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>-0.81821969171607856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>39234</v>
+      </c>
+      <c r="B33">
+        <v>430741.39950599999</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-0.41610511189220778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>39264</v>
+      </c>
+      <c r="B34">
+        <v>424328.10639099998</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>-1.4888963824594421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>39295</v>
+      </c>
+      <c r="B35">
+        <v>421451.80508199998</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>-0.67784840685278924</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>39326</v>
+      </c>
+      <c r="B36">
+        <v>414284.84497799992</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>-1.7005408489365974</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>39356</v>
+      </c>
+      <c r="B37">
+        <v>411822.24912599992</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>-0.59442093570445997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>39387</v>
+      </c>
+      <c r="B38">
+        <v>407946.709217</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>-0.94107103664867253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>39417</v>
+      </c>
+      <c r="B39">
+        <v>405148.68474300002</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>-0.6858798982274954</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>39448</v>
+      </c>
+      <c r="B40">
+        <v>399581.42220799997</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>-1.3741282508498218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>39479</v>
+      </c>
+      <c r="B41">
+        <v>395999.07873900002</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>-0.89652402987223623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>39508</v>
+      </c>
+      <c r="B42">
+        <v>396120.21494799998</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>3.0590022932805903E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>39539</v>
+      </c>
+      <c r="B43">
+        <v>393322.18841999996</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>-0.70635792429006006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>39569</v>
+      </c>
+      <c r="B44">
+        <v>390254.30396400002</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>-0.77999272513046536</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>39600</v>
+      </c>
+      <c r="B45">
+        <v>398564.17415899999</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>2.1293474820373874</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>39630</v>
+      </c>
+      <c r="B46">
+        <v>396282.96022800001</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>-0.57235799876230908</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>39661</v>
+      </c>
+      <c r="B47">
+        <v>392181.09363099997</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>-1.0350852821529468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>39692</v>
+      </c>
+      <c r="B48">
+        <v>389220.86201500002</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>-0.754812423157044</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>39722</v>
+      </c>
+      <c r="B49">
+        <v>383007.87703799998</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>-1.596262066949691</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>39753</v>
+      </c>
+      <c r="B50">
+        <v>373695.083323</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>-2.4314888213319992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>39783</v>
+      </c>
+      <c r="B51">
+        <v>356192.27529299998</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>-4.6837137578477632</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>39814</v>
+      </c>
+      <c r="B52">
+        <v>342490.19926000002</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>-3.8468200978611282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>39845</v>
+      </c>
+      <c r="B53">
+        <v>332821.05268800003</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>-2.82318927458117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>39873</v>
+      </c>
+      <c r="B54">
+        <v>319160.62347300001</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>-4.1044366348440855</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>39904</v>
+      </c>
+      <c r="B55">
+        <v>304163.19011699996</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>-4.699023705619747</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>39934</v>
+      </c>
+      <c r="B56">
+        <v>293524.04878499999</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>-3.4978398694159862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>39965</v>
+      </c>
+      <c r="B57">
+        <v>285468.62871100003</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>-2.7443816298338084</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>39995</v>
+      </c>
+      <c r="B58">
+        <v>281419.02616100002</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>-1.41858058739607</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>40026</v>
+      </c>
+      <c r="B59">
+        <v>283789.90042800002</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0.84247120720388946</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>40057</v>
+      </c>
+      <c r="B60">
+        <v>287855.79674100003</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>1.4327135345084481</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>40087</v>
+      </c>
+      <c r="B61">
+        <v>289890.71931999997</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0.70692430100022652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>40118</v>
+      </c>
+      <c r="B62">
+        <v>294346.66616700002</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>1.5371126255619392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>40148</v>
+      </c>
+      <c r="B63">
+        <v>303242.89357800002</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>3.0223639108426839</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>40179</v>
+      </c>
+      <c r="B64">
+        <v>306344.41059799999</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>1.0227830843469377</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>40210</v>
+      </c>
+      <c r="B65">
+        <v>311987.98395999998</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>1.8422315429171536</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>40238</v>
+      </c>
+      <c r="B66">
+        <v>322175.64283500001</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>3.2654010406715486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>40269</v>
+      </c>
+      <c r="B67">
+        <v>332573.93191599997</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>3.2275217919951125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>40299</v>
+      </c>
+      <c r="B68">
+        <v>348268.717596</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>4.7191869758343374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>40330</v>
+      </c>
+      <c r="B69">
+        <v>357419.80353900004</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:C132" si="1">(B69-B68)/B68*100</f>
+        <v>2.6275934302016521</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>40360</v>
+      </c>
+      <c r="B70">
+        <v>370734.20224100002</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>3.7251429747784441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>40391</v>
+      </c>
+      <c r="B71">
+        <v>377150.19636599999</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>1.7306183476509074</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>40422</v>
+      </c>
+      <c r="B72">
+        <v>381625.85602400004</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>1.1867048462720959</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>40452</v>
+      </c>
+      <c r="B73">
+        <v>391820.39138099999</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>2.6713429386605378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>40483</v>
+      </c>
+      <c r="B74">
+        <v>399259.75629500003</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>1.8986671132095605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>40513</v>
+      </c>
+      <c r="B75">
+        <v>408506.60203499999</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>2.3159974413168172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>40544</v>
+      </c>
+      <c r="B76">
+        <v>419854.44290999998</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>2.777884327565344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>40575</v>
+      </c>
+      <c r="B77">
+        <v>435032.55571400002</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>3.6150892435008992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>40603</v>
+      </c>
+      <c r="B78">
+        <v>443581.14345899998</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>1.9650455196323278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>40634</v>
+      </c>
+      <c r="B79">
+        <v>455016.69083399995</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>2.5780057479059515</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>40664</v>
+      </c>
+      <c r="B80">
+        <v>459642.08945700002</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>1.0165338362692107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>40695</v>
+      </c>
+      <c r="B81">
+        <v>465079.52259599994</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>1.1829711124634923</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>40725</v>
+      </c>
+      <c r="B82">
+        <v>469723.52444299997</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>0.99853930809035762</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>40756</v>
+      </c>
+      <c r="B83">
+        <v>475631.03336599999</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>1.257656603425422</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>40787</v>
+      </c>
+      <c r="B84">
+        <v>483248.76055900002</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>1.6016043232271928</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>40817</v>
+      </c>
+      <c r="B85">
+        <v>490377.25185499998</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>1.4751183816289672</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>40848</v>
+      </c>
+      <c r="B86">
+        <v>497109.38196700002</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>1.3728471470757928</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>40878</v>
+      </c>
+      <c r="B87">
+        <v>499119.718811</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>0.40440533148767444</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>40909</v>
+      </c>
+      <c r="B88">
+        <v>500917.89461700001</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>0.36026943801852135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>40940</v>
+      </c>
+      <c r="B89">
+        <v>491200.43236699997</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>-1.9399311452887855</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>40969</v>
+      </c>
+      <c r="B90">
+        <v>490515.804818</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>-0.13937844999461424</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>41000</v>
+      </c>
+      <c r="B91">
+        <v>491005.04891500005</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>9.9740740704894165E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>41030</v>
+      </c>
+      <c r="B92">
+        <v>489685.04020300001</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>-0.26883811376622957</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>41061</v>
+      </c>
+      <c r="B93">
+        <v>485961.326443</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>-0.76043036937708763</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>41091</v>
+      </c>
+      <c r="B94">
+        <v>479844.22197100008</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>-1.2587636379985505</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>41122</v>
+      </c>
+      <c r="B95">
+        <v>474028.36485999997</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>-1.2120302474646854</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>41153</v>
+      </c>
+      <c r="B96">
+        <v>468206.15493800008</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>-1.2282408297907299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>41183</v>
+      </c>
+      <c r="B97">
+        <v>460338.60875000001</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>-1.6803594111320233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>41214</v>
+      </c>
+      <c r="B98">
+        <v>454381.98031399999</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>-1.2939667285728242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>41244</v>
+      </c>
+      <c r="B99">
+        <v>447270.183785</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>-1.5651581350311008</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>41275</v>
+      </c>
+      <c r="B100">
+        <v>462076.16975300002</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>3.3103002401602444</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>41306</v>
+      </c>
+      <c r="B101">
+        <v>462424.205969</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>7.5320096291920699E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>41334</v>
+      </c>
+      <c r="B102">
+        <v>459889.30256699998</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>-0.54817705675423933</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>41365</v>
+      </c>
+      <c r="B103">
+        <v>452764.17045500007</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>-1.549314600759139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>41395</v>
+      </c>
+      <c r="B104">
+        <v>451341.45938799996</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>-0.31422783864950621</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B105">
+        <v>449088.29948300001</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>-0.49921403366203931</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>41456</v>
+      </c>
+      <c r="B106">
+        <v>453132.15925100003</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>0.90045983666361407</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>41487</v>
+      </c>
+      <c r="B107">
+        <v>454169.80612899998</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>0.2289943136490486</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>41518</v>
+      </c>
+      <c r="B108">
+        <v>457662.13434699993</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>0.76894768671786373</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>41548</v>
+      </c>
+      <c r="B109">
+        <v>458155.25329600007</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>0.10774737781261542</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>41579</v>
+      </c>
+      <c r="B110">
+        <v>459803.40707900003</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>0.35973696059207599</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>41609</v>
+      </c>
+      <c r="B111">
+        <v>464303.191307</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>0.97863220644358018</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>41640</v>
+      </c>
+      <c r="B112">
+        <v>464183.28472599998</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>-2.5825060702788609E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>41671</v>
+      </c>
+      <c r="B113">
+        <v>469078.22973399999</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>1.0545284953311962</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>41699</v>
+      </c>
+      <c r="B114">
+        <v>472913.94373</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>0.8177130706268595</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>41730</v>
+      </c>
+      <c r="B115">
+        <v>479140.67187099997</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>1.3166725624302984</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>41760</v>
+      </c>
+      <c r="B116">
+        <v>477949.05594999995</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>-0.2486985536725298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>41791</v>
+      </c>
+      <c r="B117">
+        <v>485725.16249500006</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>1.6269739312579774</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>41821</v>
+      </c>
+      <c r="B118">
+        <v>487872.82692800002</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>0.44215630542345569</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>41852</v>
+      </c>
+      <c r="B119">
+        <v>497868.02257600002</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>2.0487297296176483</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>41883</v>
+      </c>
+      <c r="B120">
+        <v>503503.05055999995</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>1.1318316759618228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>41913</v>
+      </c>
+      <c r="B121">
+        <v>507131.13012599997</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>0.72056754412209656</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>41944</v>
+      </c>
+      <c r="B122">
+        <v>514350.97350299999</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>1.4236640087951602</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>41974</v>
+      </c>
+      <c r="B123">
+        <v>520879.053312</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>1.2691878008007584</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>42005</v>
+      </c>
+      <c r="B124">
+        <v>525391.28826900001</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>0.86627306825049766</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>42036</v>
+      </c>
+      <c r="B125">
+        <v>533487.17511399998</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>1.5409252162656497</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>42064</v>
+      </c>
+      <c r="B126">
+        <v>541725.30775499996</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>1.5442044392612777</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>42095</v>
+      </c>
+      <c r="B127">
+        <v>547950.43957799999</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>1.1491307003540259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>42125</v>
+      </c>
+      <c r="B128">
+        <v>553665.78276500001</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>1.0430401682680737</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>42156</v>
+      </c>
+      <c r="B129">
+        <v>562861.35629499995</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>1.660852777297769</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>42186</v>
+      </c>
+      <c r="B130">
+        <v>572691.59451900003</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>1.7464759507931089</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>42217</v>
+      </c>
+      <c r="B131">
+        <v>577048.05842200003</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="1"/>
+        <v>0.76069981551919963</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>42248</v>
+      </c>
+      <c r="B132">
+        <v>582481.97302899999</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="1"/>
+        <v>0.94167453259605072</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>42278</v>
+      </c>
+      <c r="B133">
+        <v>598759.10454700002</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ref="C133:C196" si="2">(B133-B132)/B132*100</f>
+        <v>2.7944438234468159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>42309</v>
+      </c>
+      <c r="B134">
+        <v>609036.51317499997</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>1.716451332422823</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B135">
+        <v>614751.28124100005</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>0.93832930249257496</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>42370</v>
+      </c>
+      <c r="B136">
+        <v>624795.01106100006</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>1.6337875375753108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>42401</v>
+      </c>
+      <c r="B137">
+        <v>630509.68967600004</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>0.91464856694286989</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>42430</v>
+      </c>
+      <c r="B138">
+        <v>636207.46579100005</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>0.90367780357633065</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>42461</v>
+      </c>
+      <c r="B139">
+        <v>638769.56345400005</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>0.40271417749153948</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>42491</v>
+      </c>
+      <c r="B140">
+        <v>653068.47977700003</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>2.2385093374959619</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>42522</v>
+      </c>
+      <c r="B141">
+        <v>655515.32399099995</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>0.37466885782566561</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>42552</v>
+      </c>
+      <c r="B142">
+        <v>656565.97357599996</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>0.16027841707853524</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>42583</v>
+      </c>
+      <c r="B143">
+        <v>663525.73538099998</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>1.060024747717816</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>42614</v>
+      </c>
+      <c r="B144">
+        <v>666895.96954600001</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>0.50792817599830165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>42644</v>
+      </c>
+      <c r="B145">
+        <v>674749.58134399995</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>1.1776367164651498</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>42675</v>
+      </c>
+      <c r="B146">
+        <v>678235.98885199998</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>0.51669650554738134</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B147">
+        <v>681960.17044699995</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>0.54909819829873974</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>42736</v>
+      </c>
+      <c r="B148">
+        <v>692053.70271900005</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>1.4800765073104134</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>42767</v>
+      </c>
+      <c r="B149">
+        <v>692941.00640800002</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>0.1282131264544715</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>42795</v>
+      </c>
+      <c r="B150">
+        <v>696611.89830899995</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>0.52975532795046265</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>42826</v>
+      </c>
+      <c r="B151">
+        <v>707663.423648</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>1.5864680700727649</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>42856</v>
+      </c>
+      <c r="B152">
+        <v>713906.03532100003</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>0.88214417537922429</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>42887</v>
+      </c>
+      <c r="B153">
+        <v>721461.20930999995</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>1.0582868914398258</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>42917</v>
+      </c>
+      <c r="B154">
+        <v>731949.02891700005</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>1.4536914073357556</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>42948</v>
+      </c>
+      <c r="B155">
+        <v>741199.46255299996</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>1.26380844437856</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>42979</v>
+      </c>
+      <c r="B156">
+        <v>749300.781173</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>1.0930011460202247</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>43009</v>
+      </c>
+      <c r="B157">
+        <v>759163.23914199998</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>1.3162214983361826</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>43040</v>
+      </c>
+      <c r="B158">
+        <v>767741.04947299999</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>1.1299032788645806</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>43070</v>
+      </c>
+      <c r="B159">
+        <v>786476.38875399996</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>2.4403201175527154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>43101</v>
+      </c>
+      <c r="B160">
+        <v>784387.01797499997</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>-0.26566223841889791</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>43132</v>
+      </c>
+      <c r="B161">
+        <v>785716.14781999995</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>0.16944822065404844</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>43160</v>
+      </c>
+      <c r="B162">
+        <v>786108.31999900006</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>4.9912704491081157E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>43191</v>
+      </c>
+      <c r="B163">
+        <v>789123.78500100004</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>0.38359408306527254</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>43221</v>
+      </c>
+      <c r="B164">
+        <v>794066.70091300004</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>0.62638029748320567</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>43252</v>
+      </c>
+      <c r="B165">
+        <v>796086.23565599998</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>0.25432809871990886</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>43282</v>
+      </c>
+      <c r="B166">
+        <v>802020.46904999996</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>0.74542595113580712</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>43313</v>
+      </c>
+      <c r="B167">
+        <v>800725.02402400004</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>-0.16152268875810358</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>43344</v>
+      </c>
+      <c r="B168">
+        <v>805981.58609400003</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>0.65647530828790868</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>43374</v>
+      </c>
+      <c r="B169">
+        <v>800759.01476799999</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>-0.64797650667306139</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>43405</v>
+      </c>
+      <c r="B170">
+        <v>801733.07226699998</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>0.1216417774930947</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>43435</v>
+      </c>
+      <c r="B171">
+        <v>806333.30794500001</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>0.57378644303549653</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>43466</v>
+      </c>
+      <c r="B172">
+        <v>805406.02905999997</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>-0.11499945194664905</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>43497</v>
+      </c>
+      <c r="B173">
+        <v>807001.17509799998</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>0.19805489162549755</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>43525</v>
+      </c>
+      <c r="B174">
+        <v>808130.78355299996</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>0.13997606073656621</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>43556</v>
+      </c>
+      <c r="B175">
+        <v>802872.52320099995</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>-0.65066947813591824</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>43586</v>
+      </c>
+      <c r="B176">
+        <v>794717.63969500002</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="2"/>
+        <v>-1.0157133629990152</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>43617</v>
+      </c>
+      <c r="B177">
+        <v>789052.89445000002</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="2"/>
+        <v>-0.71279973691964826</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B178">
+        <v>778742.81427900004</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="2"/>
+        <v>-1.3066399278829715</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B179">
+        <v>767257.83184999996</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>-1.4748107100844927</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>43709</v>
+      </c>
+      <c r="B180">
+        <v>758832.49505999999</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>-1.0981102362532988</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>43739</v>
+      </c>
+      <c r="B181">
+        <v>741919.27561000001</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>-2.2288475467385811</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>43770</v>
+      </c>
+      <c r="B182">
+        <v>731240.27814900002</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>-1.4393745805053801</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>43800</v>
+      </c>
+      <c r="B183">
+        <v>708485.59572500002</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>-3.1117928133826656</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>43831</v>
+      </c>
+      <c r="B184">
+        <v>708993.581504</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>7.1700226802798139E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B185">
+        <v>710953.48290299997</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>0.27643429364231958</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>43891</v>
+      </c>
+      <c r="B186">
+        <v>702081.14719599998</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>-1.2479488349606274</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>43922</v>
+      </c>
+      <c r="B187">
+        <v>633489.321535</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>-9.7697860047865959</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>43952</v>
+      </c>
+      <c r="B188">
+        <v>587032.81989899999</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>-7.3334308972141535</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>43983</v>
+      </c>
+      <c r="B189">
+        <v>564416.27681399998</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>-3.852688013063942</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B190">
+        <v>557848.23983099998</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>-1.1636866711348326</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>44044</v>
+      </c>
+      <c r="B191">
+        <v>562376.03425200004</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>0.81165343864341155</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>44075</v>
+      </c>
+      <c r="B192">
+        <v>568173.57822300005</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>1.0309016775067861</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>44105</v>
+      </c>
+      <c r="B193">
+        <v>584791.63889199996</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>2.9248210944574331</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>44136</v>
+      </c>
+      <c r="B194">
+        <v>596116.189044</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="2"/>
+        <v>1.9365102711551372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>44166</v>
+      </c>
+      <c r="B195">
+        <v>600707.89006100001</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="2"/>
+        <v>0.77026947118543954</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B196">
+        <v>600374.75310099998</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="2"/>
+        <v>-5.5457397099645811E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>44228</v>
+      </c>
+      <c r="B197">
+        <v>601309.61082399997</v>
+      </c>
+      <c r="C197">
+        <f t="shared" ref="C197:C225" si="3">(B197-B196)/B196*100</f>
+        <v>0.15571236434766009</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B198">
+        <v>619968.86723199999</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="3"/>
+        <v>3.1031029725985002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B199">
+        <v>636650.71227200003</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>2.6907552817095719</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B200">
+        <v>657777.99803699995</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>3.3185050071810154</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>44348</v>
+      </c>
+      <c r="B201">
+        <v>686053.511084</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>4.2986407467842289</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>44378</v>
+      </c>
+      <c r="B202">
+        <v>724277.98114000005</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="3"/>
+        <v>5.5716455696879112</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>44409</v>
+      </c>
+      <c r="B203">
+        <v>748331.99130300002</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="3"/>
+        <v>3.3211019510960975</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>44440</v>
+      </c>
+      <c r="B204">
+        <v>768025.15258999995</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="3"/>
+        <v>2.6316075640051269</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>44470</v>
+      </c>
+      <c r="B205">
+        <v>785013.60580899997</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="3"/>
+        <v>2.2119657359801441</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>44501</v>
+      </c>
+      <c r="B206">
+        <v>802246.43027600006</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="3"/>
+        <v>2.1952262151228203</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>44531</v>
+      </c>
+      <c r="B207">
+        <v>820868.42761300004</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="3"/>
+        <v>2.3212315610545478</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>44562</v>
+      </c>
+      <c r="B208">
+        <v>838153.01913999999</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="3"/>
+        <v>2.1056470130373692</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>44593</v>
+      </c>
+      <c r="B209">
+        <v>849179.314227</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="3"/>
+        <v>1.3155467838454735</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B210">
+        <v>854681.73747000005</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="3"/>
+        <v>0.64796953373844957</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>44652</v>
+      </c>
+      <c r="B211">
+        <v>863323.15442799998</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="3"/>
+        <v>1.01106839881474</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>44682</v>
+      </c>
+      <c r="B212">
+        <v>871060.21314500005</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="3"/>
+        <v>0.89619497372641421</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>44713</v>
+      </c>
+      <c r="B213">
+        <v>868145.12596700003</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="3"/>
+        <v>-0.33465966347779447</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>44743</v>
+      </c>
+      <c r="B214">
+        <v>855975.15656799998</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="3"/>
+        <v>-1.4018358261752952</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>44774</v>
+      </c>
+      <c r="B215">
+        <v>850309.95540700003</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="3"/>
+        <v>-0.66184177397324895</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>44805</v>
+      </c>
+      <c r="B216">
+        <v>838814.94528999995</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="3"/>
+        <v>-1.3518611706125456</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>44835</v>
+      </c>
+      <c r="B217">
+        <v>822092.758164</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="3"/>
+        <v>-1.9935490205433399</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>44866</v>
+      </c>
+      <c r="B218">
+        <v>817113.19071999996</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="3"/>
+        <v>-0.60571844169033129</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>44896</v>
+      </c>
+      <c r="B219">
+        <v>807901.35934800003</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="3"/>
+        <v>-1.1273629500317961</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>44927</v>
+      </c>
+      <c r="B220">
+        <v>808684.742203</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="3"/>
+        <v>9.6965161146923579E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B221">
+        <v>803536.48203399999</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="3"/>
+        <v>-0.63662140514426502</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B222">
+        <v>792942.86015399999</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="3"/>
+        <v>-1.3183747243416069</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B223">
+        <v>784138.61479400005</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="3"/>
+        <v>-1.1103253213340041</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B224">
+        <v>772095.16741200001</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="3"/>
+        <v>-1.5358824517478915</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B225">
+        <v>761822.29395299999</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="3"/>
+        <v>-1.330519072335844</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70AB77D-7245-AE48-B6FF-9ABCD6DC6022}">
+  <dimension ref="A2:B224"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>38353</v>
+      </c>
+      <c r="B3" s="6">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>38384</v>
+      </c>
+      <c r="B4" s="6">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>38412</v>
+      </c>
+      <c r="B5" s="6">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>38443</v>
+      </c>
+      <c r="B6" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>38473</v>
+      </c>
+      <c r="B7" s="6">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>38504</v>
+      </c>
+      <c r="B8" s="6">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>38534</v>
+      </c>
+      <c r="B9" s="6">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>38565</v>
+      </c>
+      <c r="B10" s="6">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>38596</v>
+      </c>
+      <c r="B11" s="6">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>38626</v>
+      </c>
+      <c r="B12" s="6">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>38657</v>
+      </c>
+      <c r="B13" s="6">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>38687</v>
+      </c>
+      <c r="B14" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>38718</v>
+      </c>
+      <c r="B15" s="6">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>38749</v>
+      </c>
+      <c r="B16" s="6">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>38777</v>
+      </c>
+      <c r="B17" s="6">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>38808</v>
+      </c>
+      <c r="B18" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>38838</v>
+      </c>
+      <c r="B19" s="6">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>38869</v>
+      </c>
+      <c r="B20" s="6">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>38899</v>
+      </c>
+      <c r="B21" s="6">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>38930</v>
+      </c>
+      <c r="B22" s="6">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>38961</v>
+      </c>
+      <c r="B23" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>38991</v>
+      </c>
+      <c r="B24" s="6">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>39022</v>
+      </c>
+      <c r="B25" s="6">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>39052</v>
+      </c>
+      <c r="B26" s="6">
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>39083</v>
+      </c>
+      <c r="B27" s="6">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>39114</v>
+      </c>
+      <c r="B28" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>39142</v>
+      </c>
+      <c r="B29" s="6">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>39173</v>
+      </c>
+      <c r="B30" s="6">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>39203</v>
+      </c>
+      <c r="B31" s="6">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>39234</v>
+      </c>
+      <c r="B32" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>39264</v>
+      </c>
+      <c r="B33" s="6">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>39295</v>
+      </c>
+      <c r="B34" s="6">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>39326</v>
+      </c>
+      <c r="B35" s="6">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>39356</v>
+      </c>
+      <c r="B36" s="6">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>39387</v>
+      </c>
+      <c r="B37" s="6">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>39417</v>
+      </c>
+      <c r="B38" s="6">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>39448</v>
+      </c>
+      <c r="B39" s="6">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>39479</v>
+      </c>
+      <c r="B40" s="6">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>39508</v>
+      </c>
+      <c r="B41" s="6">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>39539</v>
+      </c>
+      <c r="B42" s="6">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>39569</v>
+      </c>
+      <c r="B43" s="6">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>39600</v>
+      </c>
+      <c r="B44" s="6">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>39630</v>
+      </c>
+      <c r="B45" s="6">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>39661</v>
+      </c>
+      <c r="B46" s="6">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>39692</v>
+      </c>
+      <c r="B47" s="6">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>39722</v>
+      </c>
+      <c r="B48" s="6">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>39753</v>
+      </c>
+      <c r="B49" s="6">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>39783</v>
+      </c>
+      <c r="B50" s="6">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>39814</v>
+      </c>
+      <c r="B51" s="6">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>39845</v>
+      </c>
+      <c r="B52" s="6">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>39873</v>
+      </c>
+      <c r="B53" s="6">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>39904</v>
+      </c>
+      <c r="B54" s="6">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>39934</v>
+      </c>
+      <c r="B55" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>39965</v>
+      </c>
+      <c r="B56" s="6">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>39995</v>
+      </c>
+      <c r="B57" s="6">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>40026</v>
+      </c>
+      <c r="B58" s="6">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>40057</v>
+      </c>
+      <c r="B59" s="6">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>40087</v>
+      </c>
+      <c r="B60" s="6">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>40118</v>
+      </c>
+      <c r="B61" s="6">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>40148</v>
+      </c>
+      <c r="B62" s="6">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>40179</v>
+      </c>
+      <c r="B63" s="6">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>40210</v>
+      </c>
+      <c r="B64" s="6">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>40238</v>
+      </c>
+      <c r="B65" s="6">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>40269</v>
+      </c>
+      <c r="B66" s="6">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>40299</v>
+      </c>
+      <c r="B67" s="6">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>40330</v>
+      </c>
+      <c r="B68" s="6">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>40360</v>
+      </c>
+      <c r="B69" s="6">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>40391</v>
+      </c>
+      <c r="B70" s="6">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>40422</v>
+      </c>
+      <c r="B71" s="6">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>40452</v>
+      </c>
+      <c r="B72" s="6">
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>40483</v>
+      </c>
+      <c r="B73" s="6">
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>40513</v>
+      </c>
+      <c r="B74" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>40544</v>
+      </c>
+      <c r="B75" s="6">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>40575</v>
+      </c>
+      <c r="B76" s="6">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>40603</v>
+      </c>
+      <c r="B77" s="6">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>40634</v>
+      </c>
+      <c r="B78" s="6">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>40664</v>
+      </c>
+      <c r="B79" s="6">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>40695</v>
+      </c>
+      <c r="B80" s="6">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>40725</v>
+      </c>
+      <c r="B81" s="6">
+        <v>102.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>40756</v>
+      </c>
+      <c r="B82" s="6">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>40787</v>
+      </c>
+      <c r="B83" s="6">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>40817</v>
+      </c>
+      <c r="B84" s="6">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>40848</v>
+      </c>
+      <c r="B85" s="6">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>40878</v>
+      </c>
+      <c r="B86" s="6">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>40909</v>
+      </c>
+      <c r="B87" s="6">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>40940</v>
+      </c>
+      <c r="B88" s="6">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>40969</v>
+      </c>
+      <c r="B89" s="6">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>41000</v>
+      </c>
+      <c r="B90" s="6">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>41030</v>
+      </c>
+      <c r="B91" s="6">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>41061</v>
+      </c>
+      <c r="B92" s="6">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>41091</v>
+      </c>
+      <c r="B93" s="6">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>41122</v>
+      </c>
+      <c r="B94" s="6">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>41153</v>
+      </c>
+      <c r="B95" s="6">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>41183</v>
+      </c>
+      <c r="B96" s="6">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>41214</v>
+      </c>
+      <c r="B97" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>41244</v>
+      </c>
+      <c r="B98" s="6">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>41275</v>
+      </c>
+      <c r="B99" s="6">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>41306</v>
+      </c>
+      <c r="B100" s="6">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>41334</v>
+      </c>
+      <c r="B101" s="6">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>41365</v>
+      </c>
+      <c r="B102" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>41395</v>
+      </c>
+      <c r="B103" s="6">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B104" s="6">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>41456</v>
+      </c>
+      <c r="B105" s="6">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>41487</v>
+      </c>
+      <c r="B106" s="6">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>41518</v>
+      </c>
+      <c r="B107" s="6">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>41548</v>
+      </c>
+      <c r="B108" s="6">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>41579</v>
+      </c>
+      <c r="B109" s="6">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>41609</v>
+      </c>
+      <c r="B110" s="6">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>41640</v>
+      </c>
+      <c r="B111" s="6">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>41671</v>
+      </c>
+      <c r="B112" s="6">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>41699</v>
+      </c>
+      <c r="B113" s="6">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>41730</v>
+      </c>
+      <c r="B114" s="6">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>41760</v>
+      </c>
+      <c r="B115" s="6">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>41791</v>
+      </c>
+      <c r="B116" s="6">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>41821</v>
+      </c>
+      <c r="B117" s="6">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>41852</v>
+      </c>
+      <c r="B118" s="6">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>41883</v>
+      </c>
+      <c r="B119" s="6">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>41913</v>
+      </c>
+      <c r="B120" s="6">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>41944</v>
+      </c>
+      <c r="B121" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>41974</v>
+      </c>
+      <c r="B122" s="6">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>42005</v>
+      </c>
+      <c r="B123" s="6">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>42036</v>
+      </c>
+      <c r="B124" s="6">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>42064</v>
+      </c>
+      <c r="B125" s="6">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>42095</v>
+      </c>
+      <c r="B126" s="6">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>42125</v>
+      </c>
+      <c r="B127" s="6">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>42156</v>
+      </c>
+      <c r="B128" s="6">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>42186</v>
+      </c>
+      <c r="B129" s="6">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>42217</v>
+      </c>
+      <c r="B130" s="6">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>42248</v>
+      </c>
+      <c r="B131" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>42278</v>
+      </c>
+      <c r="B132" s="6">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>42309</v>
+      </c>
+      <c r="B133" s="6">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B134" s="6">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>42370</v>
+      </c>
+      <c r="B135" s="6">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>42401</v>
+      </c>
+      <c r="B136" s="6">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>42430</v>
+      </c>
+      <c r="B137" s="6">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>42461</v>
+      </c>
+      <c r="B138" s="6">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>42491</v>
+      </c>
+      <c r="B139" s="6">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>42522</v>
+      </c>
+      <c r="B140" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>42552</v>
+      </c>
+      <c r="B141" s="6">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>42583</v>
+      </c>
+      <c r="B142" s="6">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>42614</v>
+      </c>
+      <c r="B143" s="6">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>42644</v>
+      </c>
+      <c r="B144" s="6">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>42675</v>
+      </c>
+      <c r="B145" s="6">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B146" s="6">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>42736</v>
+      </c>
+      <c r="B147" s="6">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>42767</v>
+      </c>
+      <c r="B148" s="6">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>42795</v>
+      </c>
+      <c r="B149" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>42826</v>
+      </c>
+      <c r="B150" s="6">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>42856</v>
+      </c>
+      <c r="B151" s="6">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>42887</v>
+      </c>
+      <c r="B152" s="6">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>42917</v>
+      </c>
+      <c r="B153" s="6">
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>42948</v>
+      </c>
+      <c r="B154" s="6">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>42979</v>
+      </c>
+      <c r="B155" s="6">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>43009</v>
+      </c>
+      <c r="B156" s="6">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>43040</v>
+      </c>
+      <c r="B157" s="6">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>43070</v>
+      </c>
+      <c r="B158" s="6">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>43101</v>
+      </c>
+      <c r="B159" s="6">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>43132</v>
+      </c>
+      <c r="B160" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>43160</v>
+      </c>
+      <c r="B161" s="6">
+        <v>104.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>43191</v>
+      </c>
+      <c r="B162" s="6">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>43221</v>
+      </c>
+      <c r="B163" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>43252</v>
+      </c>
+      <c r="B164" s="6">
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>43282</v>
+      </c>
+      <c r="B165" s="6">
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>43313</v>
+      </c>
+      <c r="B166" s="6">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>43344</v>
+      </c>
+      <c r="B167" s="6">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>43374</v>
+      </c>
+      <c r="B168" s="6">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>43405</v>
+      </c>
+      <c r="B169" s="6">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>43435</v>
+      </c>
+      <c r="B170" s="6">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>43466</v>
+      </c>
+      <c r="B171" s="6">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>43497</v>
+      </c>
+      <c r="B172" s="6">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>43525</v>
+      </c>
+      <c r="B173" s="6">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>43556</v>
+      </c>
+      <c r="B174" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>43586</v>
+      </c>
+      <c r="B175" s="6">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>43617</v>
+      </c>
+      <c r="B176" s="6">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B177" s="6">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B178" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>43709</v>
+      </c>
+      <c r="B179" s="6">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>43739</v>
+      </c>
+      <c r="B180" s="6">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>43770</v>
+      </c>
+      <c r="B181" s="6">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>43800</v>
+      </c>
+      <c r="B182" s="6">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>43831</v>
+      </c>
+      <c r="B183" s="6">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B184" s="6">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>43891</v>
+      </c>
+      <c r="B185" s="6">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>43922</v>
+      </c>
+      <c r="B186" s="6">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>43952</v>
+      </c>
+      <c r="B187" s="6">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>43983</v>
+      </c>
+      <c r="B188" s="6">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B189" s="6">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>44044</v>
+      </c>
+      <c r="B190" s="6">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>44075</v>
+      </c>
+      <c r="B191" s="6">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>44105</v>
+      </c>
+      <c r="B192" s="6">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>44136</v>
+      </c>
+      <c r="B193" s="6">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>44166</v>
+      </c>
+      <c r="B194" s="6">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B195" s="6">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>44228</v>
+      </c>
+      <c r="B196" s="6">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B197" s="6">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B198" s="6">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B199" s="6">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>44348</v>
+      </c>
+      <c r="B200" s="6">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>44378</v>
+      </c>
+      <c r="B201" s="6">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>44409</v>
+      </c>
+      <c r="B202" s="6">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>44440</v>
+      </c>
+      <c r="B203" s="6">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>44470</v>
+      </c>
+      <c r="B204" s="6">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>44501</v>
+      </c>
+      <c r="B205" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>44531</v>
+      </c>
+      <c r="B206" s="7">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>44562</v>
+      </c>
+      <c r="B207" s="7">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>44593</v>
+      </c>
+      <c r="B208" s="7">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B209" s="7">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>44652</v>
+      </c>
+      <c r="B210" s="7">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>44682</v>
+      </c>
+      <c r="B211" s="7">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>44713</v>
+      </c>
+      <c r="B212" s="7">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>44743</v>
+      </c>
+      <c r="B213" s="7">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>44774</v>
+      </c>
+      <c r="B214" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>44805</v>
+      </c>
+      <c r="B215" s="7">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>44835</v>
+      </c>
+      <c r="B216" s="7">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>44866</v>
+      </c>
+      <c r="B217" s="7">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>44896</v>
+      </c>
+      <c r="B218" s="7">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>44927</v>
+      </c>
+      <c r="B219" s="7">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B220" s="7">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B221" s="7">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B222" s="7">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B223" s="7">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B224" s="7">
+        <v>88.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>